--- a/artfynd/A 37343-2021.xlsx
+++ b/artfynd/A 37343-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6842981</v>
+        <v>104408499</v>
       </c>
       <c r="B2" t="n">
-        <v>77506</v>
+        <v>96334</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,43 +692,42 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Marjas mosse, Dlr</t>
+          <t>Flenberget östra , Dlr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>488181.4782295883</v>
+        <v>487923.9038741084</v>
       </c>
       <c r="R2" t="n">
-        <v>6687356.43506822</v>
+        <v>6687787.721283942</v>
       </c>
       <c r="S2" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -752,22 +751,22 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2013-07-05</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:49</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2013-07-05</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:49</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -782,22 +781,22 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Janolof Hermansson</t>
+          <t>malou lundin</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Janolof Hermansson</t>
+          <t>malou lundin</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>66887336</v>
+        <v>104405150</v>
       </c>
       <c r="B3" t="n">
-        <v>96354</v>
+        <v>89832</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -806,52 +805,42 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>221952</v>
+        <v>1209</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr"/>
+          <t>P.Karst.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Flen,östra sluttningen, Dlr</t>
+          <t>Flenberget östra , Dlr</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>488152.0494183262</v>
+        <v>487998.6112149965</v>
       </c>
       <c r="R3" t="n">
-        <v>6687308.975942057</v>
+        <v>6687423.905810274</v>
       </c>
       <c r="S3" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -875,22 +864,22 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2017-07-27</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:36</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2017-07-27</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:36</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -905,22 +894,22 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Ulf Svensson</t>
+          <t>malou lundin</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Ulf Svensson</t>
+          <t>malou lundin</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>66887350</v>
+        <v>104738890</v>
       </c>
       <c r="B4" t="n">
-        <v>96252</v>
+        <v>56395</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -929,52 +918,46 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>223591</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Skogsnycklar</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata subsp. fuchsii</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Druce) Hyl.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Flen,östra sluttningen, Dlr</t>
+          <t>Flenberget, Dlr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>488152.0494183262</v>
+        <v>488019.0337190929</v>
       </c>
       <c r="R4" t="n">
-        <v>6687308.975942057</v>
+        <v>6687448.110625132</v>
       </c>
       <c r="S4" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -998,22 +981,27 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2017-07-27</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>09:29</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2017-07-27</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>09:29</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Markeringar på tall.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1028,73 +1016,65 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Ulf Svensson</t>
+          <t>Uno Skog</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Ulf Svensson</t>
+          <t>malou lundin</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>74239321</v>
+        <v>104739438</v>
       </c>
       <c r="B5" t="n">
-        <v>56395</v>
+        <v>96334</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Godkänd baserat på observatörens uppgifter</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Flen,östra sluttningen, Dlr</t>
+          <t>flenberget östra, Dlr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>488152.0494183262</v>
+        <v>487834.1107313664</v>
       </c>
       <c r="R5" t="n">
-        <v>6687308.975942057</v>
+        <v>6687789.010737774</v>
       </c>
       <c r="S5" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1118,22 +1098,27 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2018-10-19</t>
+          <t>2022-10-06</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>09:28</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2018-10-19</t>
+          <t>2022-10-06</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>09:28</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>yta 5×5m med knärot utspritt.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1144,26 +1129,31 @@
       </c>
       <c r="AG5" t="b">
         <v>0</v>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>Blandskog</t>
+        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Ulf Svensson</t>
+          <t>Uno Skog</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Ulf Svensson</t>
+          <t>malou lundin</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>104407789</v>
+        <v>104738888</v>
       </c>
       <c r="B6" t="n">
-        <v>77259</v>
+        <v>96334</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1172,39 +1162,38 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>228912</v>
+        <v>220787</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Flenberget östra , Dlr</t>
+          <t>Flenberget östra, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>488138.4838947128</v>
+        <v>487921.5497958913</v>
       </c>
       <c r="R6" t="n">
-        <v>6687409.577808092</v>
+        <v>6687825.867019381</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1236,7 +1225,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>13:10</t>
+          <t>12:51</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1246,7 +1235,12 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>13:10</t>
+          <t>12:51</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>knärot på en yta 10*10 m.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1261,7 +1255,7 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>malou lundin</t>
+          <t>Uno Skog</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
@@ -1273,10 +1267,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>104407797</v>
+        <v>104738886</v>
       </c>
       <c r="B7" t="n">
-        <v>77258</v>
+        <v>89832</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1285,42 +1279,41 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6446</v>
+        <v>1209</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Flenberget östra , Dlr</t>
+          <t>Flenberget, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>488111.8332868879</v>
+        <v>487932.6271234539</v>
       </c>
       <c r="R7" t="n">
-        <v>6687453.255358439</v>
+        <v>6687725.283991279</v>
       </c>
       <c r="S7" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1349,7 +1342,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>12:41</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1359,7 +1352,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>12:41</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1374,7 +1367,7 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>malou lundin</t>
+          <t>Uno Skog</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
@@ -1386,10 +1379,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>104408499</v>
+        <v>104738894</v>
       </c>
       <c r="B8" t="n">
-        <v>96334</v>
+        <v>89356</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1398,42 +1391,41 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Flenberget östra , Dlr</t>
+          <t>Flenberget östra, Dlr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>487923.9038741084</v>
+        <v>487936.5895330756</v>
       </c>
       <c r="R8" t="n">
-        <v>6687787.721283942</v>
+        <v>6687723.289628441</v>
       </c>
       <c r="S8" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1462,7 +1454,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>13:49</t>
+          <t>12:42</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1472,7 +1464,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>13:49</t>
+          <t>12:42</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1487,7 +1479,7 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>malou lundin</t>
+          <t>Uno Skog</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
@@ -1499,10 +1491,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>104405150</v>
+        <v>104739275</v>
       </c>
       <c r="B9" t="n">
-        <v>89832</v>
+        <v>96334</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1515,38 +1507,37 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1209</v>
+        <v>220787</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Flenberget östra , Dlr</t>
+          <t>Flenberget östra, Dlr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>487998.6112149965</v>
+        <v>487838.4880869266</v>
       </c>
       <c r="R9" t="n">
-        <v>6687423.905810274</v>
+        <v>6687762.745108599</v>
       </c>
       <c r="S9" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1570,22 +1561,22 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2022-10-17</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>10:36</t>
+          <t>11:55</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2022-10-17</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>10:36</t>
+          <t>11:55</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1600,7 +1591,7 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>malou lundin</t>
+          <t>Uno Skog</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
@@ -1612,10 +1603,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>104738890</v>
+        <v>6842981</v>
       </c>
       <c r="B10" t="n">
-        <v>56395</v>
+        <v>77506</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1628,42 +1619,39 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Flenberget, Dlr</t>
+          <t>Marjas mosse, Dlr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>488019.0337190929</v>
+        <v>488181.4782295883</v>
       </c>
       <c r="R10" t="n">
-        <v>6687448.110625132</v>
+        <v>6687356.43506822</v>
       </c>
       <c r="S10" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1687,27 +1675,22 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2013-07-05</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>09:29</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2013-07-05</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>09:29</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>Markeringar på tall.</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1722,22 +1705,22 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Uno Skog</t>
+          <t>Janolof Hermansson</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>malou lundin</t>
+          <t>Janolof Hermansson</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>104739438</v>
+        <v>66887336</v>
       </c>
       <c r="B11" t="n">
-        <v>96334</v>
+        <v>96354</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1746,41 +1729,52 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>220787</v>
+        <v>221952</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>(L.) Rich.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>flenberget östra, Dlr</t>
+          <t>Flen,östra sluttningen, Dlr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>487834.1107313664</v>
+        <v>488152.0494183262</v>
       </c>
       <c r="R11" t="n">
-        <v>6687789.010737774</v>
+        <v>6687308.975942057</v>
       </c>
       <c r="S11" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1804,27 +1798,22 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2022-10-06</t>
+          <t>2017-07-27</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>09:28</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2022-10-06</t>
+          <t>2017-07-27</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>09:28</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>yta 5×5m med knärot utspritt.</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1835,31 +1824,26 @@
       </c>
       <c r="AG11" t="b">
         <v>0</v>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>Blandskog</t>
-        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Uno Skog</t>
+          <t>Ulf Svensson</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>malou lundin</t>
+          <t>Ulf Svensson</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>104738888</v>
+        <v>66887350</v>
       </c>
       <c r="B12" t="n">
-        <v>96334</v>
+        <v>96252</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1868,41 +1852,52 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>220787</v>
+        <v>223591</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skogsnycklar</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dactylorhiza maculata subsp. fuchsii</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>(Druce) Hyl.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Flenberget östra, Dlr</t>
+          <t>Flen,östra sluttningen, Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>487921.5497958913</v>
+        <v>488152.0494183262</v>
       </c>
       <c r="R12" t="n">
-        <v>6687825.867019381</v>
+        <v>6687308.975942057</v>
       </c>
       <c r="S12" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1926,27 +1921,22 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2017-07-27</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2017-07-27</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>12:51</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>knärot på en yta 10*10 m.</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1961,65 +1951,73 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Uno Skog</t>
+          <t>Ulf Svensson</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>malou lundin</t>
+          <t>Ulf Svensson</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>104738886</v>
+        <v>74239321</v>
       </c>
       <c r="B13" t="n">
-        <v>89832</v>
+        <v>56395</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1209</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Flenberget, Dlr</t>
+          <t>Flen,östra sluttningen, Dlr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>487932.6271234539</v>
+        <v>488152.0494183262</v>
       </c>
       <c r="R13" t="n">
-        <v>6687725.283991279</v>
+        <v>6687308.975942057</v>
       </c>
       <c r="S13" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2043,22 +2041,22 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2018-10-19</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>12:41</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2018-10-19</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>12:41</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2073,22 +2071,22 @@
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Uno Skog</t>
+          <t>Ulf Svensson</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>malou lundin</t>
+          <t>Ulf Svensson</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>104738894</v>
+        <v>104407789</v>
       </c>
       <c r="B14" t="n">
-        <v>89356</v>
+        <v>77259</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2097,41 +2095,42 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5447</v>
+        <v>228912</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Flenberget östra, Dlr</t>
+          <t>Flenberget östra , Dlr</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>487936.5895330756</v>
+        <v>488138.4838947128</v>
       </c>
       <c r="R14" t="n">
-        <v>6687723.289628441</v>
+        <v>6687409.577808092</v>
       </c>
       <c r="S14" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2160,7 +2159,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>12:42</t>
+          <t>13:10</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2170,7 +2169,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>12:42</t>
+          <t>13:10</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2185,7 +2184,7 @@
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Uno Skog</t>
+          <t>malou lundin</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
@@ -2197,10 +2196,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>104738887</v>
+        <v>104407797</v>
       </c>
       <c r="B15" t="n">
-        <v>77259</v>
+        <v>77258</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2213,37 +2212,38 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>228912</v>
+        <v>6446</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Flenberget östra, Dlr</t>
+          <t>Flenberget östra , Dlr</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>488105.6938069899</v>
+        <v>488111.8332868879</v>
       </c>
       <c r="R15" t="n">
-        <v>6687548.380501501</v>
+        <v>6687453.255358439</v>
       </c>
       <c r="S15" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2272,7 +2272,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>12:16</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2282,7 +2282,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>12:16</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2297,7 +2297,7 @@
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Uno Skog</t>
+          <t>malou lundin</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
@@ -2309,10 +2309,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>104739275</v>
+        <v>104738887</v>
       </c>
       <c r="B16" t="n">
-        <v>96334</v>
+        <v>77259</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2321,25 +2321,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>220787</v>
+        <v>228912</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2349,13 +2349,13 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>487838.4880869266</v>
+        <v>488105.6938069899</v>
       </c>
       <c r="R16" t="n">
-        <v>6687762.745108599</v>
+        <v>6687548.380501501</v>
       </c>
       <c r="S16" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2379,22 +2379,22 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>11:55</t>
+          <t>12:16</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>11:55</t>
+          <t>12:16</t>
         </is>
       </c>
       <c r="AD16" t="b">

--- a/artfynd/A 37343-2021.xlsx
+++ b/artfynd/A 37343-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>104408499</v>
+        <v>6842981</v>
       </c>
       <c r="B2" t="n">
-        <v>96334</v>
+        <v>77506</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,42 +692,43 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Flenberget östra , Dlr</t>
+          <t>Marjas mosse, Dlr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>487923.9038741084</v>
+        <v>488181.4782295883</v>
       </c>
       <c r="R2" t="n">
-        <v>6687787.721283942</v>
+        <v>6687356.43506822</v>
       </c>
       <c r="S2" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -751,22 +752,22 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2013-07-05</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>13:49</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2013-07-05</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>13:49</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -781,22 +782,22 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>malou lundin</t>
+          <t>Janolof Hermansson</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>malou lundin</t>
+          <t>Janolof Hermansson</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>104405150</v>
+        <v>66887336</v>
       </c>
       <c r="B3" t="n">
-        <v>89832</v>
+        <v>96354</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,42 +806,52 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1209</v>
+        <v>221952</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+          <t>(L.) Rich.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Flenberget östra , Dlr</t>
+          <t>Flen,östra sluttningen, Dlr</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>487998.6112149965</v>
+        <v>488152.0494183262</v>
       </c>
       <c r="R3" t="n">
-        <v>6687423.905810274</v>
+        <v>6687308.975942057</v>
       </c>
       <c r="S3" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -864,22 +875,22 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2017-07-27</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>10:36</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2017-07-27</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>10:36</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -894,22 +905,22 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>malou lundin</t>
+          <t>Ulf Svensson</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>malou lundin</t>
+          <t>Ulf Svensson</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>104738890</v>
+        <v>66887350</v>
       </c>
       <c r="B4" t="n">
-        <v>56395</v>
+        <v>96252</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,46 +929,52 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>223591</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skogsnycklar</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dactylorhiza maculata subsp. fuchsii</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
+          <t>(Druce) Hyl.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Flenberget, Dlr</t>
+          <t>Flen,östra sluttningen, Dlr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>488019.0337190929</v>
+        <v>488152.0494183262</v>
       </c>
       <c r="R4" t="n">
-        <v>6687448.110625132</v>
+        <v>6687308.975942057</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -981,27 +998,22 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2017-07-27</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>09:29</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2017-07-27</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>09:29</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Markeringar på tall.</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1016,65 +1028,73 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Uno Skog</t>
+          <t>Ulf Svensson</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>malou lundin</t>
+          <t>Ulf Svensson</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>104739438</v>
+        <v>74239321</v>
       </c>
       <c r="B5" t="n">
-        <v>96334</v>
+        <v>56395</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>flenberget östra, Dlr</t>
+          <t>Flen,östra sluttningen, Dlr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>487834.1107313664</v>
+        <v>488152.0494183262</v>
       </c>
       <c r="R5" t="n">
-        <v>6687789.010737774</v>
+        <v>6687308.975942057</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1098,27 +1118,22 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2022-10-06</t>
+          <t>2018-10-19</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>09:28</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2022-10-06</t>
+          <t>2018-10-19</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>09:28</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>yta 5×5m med knärot utspritt.</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1129,31 +1144,26 @@
       </c>
       <c r="AG5" t="b">
         <v>0</v>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>Blandskog</t>
-        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Uno Skog</t>
+          <t>Ulf Svensson</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>malou lundin</t>
+          <t>Ulf Svensson</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>104738888</v>
+        <v>104407789</v>
       </c>
       <c r="B6" t="n">
-        <v>96334</v>
+        <v>77259</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1162,38 +1172,39 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>220787</v>
+        <v>228912</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Flenberget östra, Dlr</t>
+          <t>Flenberget östra , Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>487921.5497958913</v>
+        <v>488138.4838947128</v>
       </c>
       <c r="R6" t="n">
-        <v>6687825.867019381</v>
+        <v>6687409.577808092</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1225,7 +1236,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>12:51</t>
+          <t>13:10</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1235,12 +1246,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>12:51</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>knärot på en yta 10*10 m.</t>
+          <t>13:10</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1255,7 +1261,7 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Uno Skog</t>
+          <t>malou lundin</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
@@ -1267,10 +1273,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>104738886</v>
+        <v>104407797</v>
       </c>
       <c r="B7" t="n">
-        <v>89832</v>
+        <v>77258</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1279,41 +1285,42 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1209</v>
+        <v>6446</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Flenberget, Dlr</t>
+          <t>Flenberget östra , Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>487932.6271234539</v>
+        <v>488111.8332868879</v>
       </c>
       <c r="R7" t="n">
-        <v>6687725.283991279</v>
+        <v>6687453.255358439</v>
       </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1342,7 +1349,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>12:41</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1352,7 +1359,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>12:41</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1367,7 +1374,7 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Uno Skog</t>
+          <t>malou lundin</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
@@ -1379,10 +1386,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>104738894</v>
+        <v>104408499</v>
       </c>
       <c r="B8" t="n">
-        <v>89356</v>
+        <v>96334</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1391,41 +1398,42 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5447</v>
+        <v>220787</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Flenberget östra, Dlr</t>
+          <t>Flenberget östra , Dlr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>487936.5895330756</v>
+        <v>487923.9038741084</v>
       </c>
       <c r="R8" t="n">
-        <v>6687723.289628441</v>
+        <v>6687787.721283942</v>
       </c>
       <c r="S8" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1454,7 +1462,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>12:42</t>
+          <t>13:49</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1464,7 +1472,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>12:42</t>
+          <t>13:49</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1479,7 +1487,7 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Uno Skog</t>
+          <t>malou lundin</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
@@ -1491,10 +1499,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>104739275</v>
+        <v>104405150</v>
       </c>
       <c r="B9" t="n">
-        <v>96334</v>
+        <v>89832</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1507,37 +1515,38 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>220787</v>
+        <v>1209</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Flenberget östra, Dlr</t>
+          <t>Flenberget östra , Dlr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>487838.4880869266</v>
+        <v>487998.6112149965</v>
       </c>
       <c r="R9" t="n">
-        <v>6687762.745108599</v>
+        <v>6687423.905810274</v>
       </c>
       <c r="S9" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1561,22 +1570,22 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>11:55</t>
+          <t>10:36</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>11:55</t>
+          <t>10:36</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1591,7 +1600,7 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Uno Skog</t>
+          <t>malou lundin</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
@@ -1603,10 +1612,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6842981</v>
+        <v>104738890</v>
       </c>
       <c r="B10" t="n">
-        <v>77506</v>
+        <v>56395</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1619,39 +1628,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Marjas mosse, Dlr</t>
+          <t>Flenberget, Dlr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>488181.4782295883</v>
+        <v>488019.0337190929</v>
       </c>
       <c r="R10" t="n">
-        <v>6687356.43506822</v>
+        <v>6687448.110625132</v>
       </c>
       <c r="S10" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1675,22 +1687,27 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2013-07-05</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>09:29</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2013-07-05</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>09:29</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Markeringar på tall.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1705,22 +1722,22 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Janolof Hermansson</t>
+          <t>Uno Skog</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Janolof Hermansson</t>
+          <t>malou lundin</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>66887336</v>
+        <v>104739438</v>
       </c>
       <c r="B11" t="n">
-        <v>96354</v>
+        <v>96334</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1729,52 +1746,41 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>221952</v>
+        <v>220787</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Flen,östra sluttningen, Dlr</t>
+          <t>flenberget östra, Dlr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>488152.0494183262</v>
+        <v>487834.1107313664</v>
       </c>
       <c r="R11" t="n">
-        <v>6687308.975942057</v>
+        <v>6687789.010737774</v>
       </c>
       <c r="S11" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1798,22 +1804,27 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2017-07-27</t>
+          <t>2022-10-06</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>09:28</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2017-07-27</t>
+          <t>2022-10-06</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>09:28</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>yta 5×5m med knärot utspritt.</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1824,26 +1835,31 @@
       </c>
       <c r="AG11" t="b">
         <v>0</v>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>Blandskog</t>
+        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Ulf Svensson</t>
+          <t>Uno Skog</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Ulf Svensson</t>
+          <t>malou lundin</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>66887350</v>
+        <v>104738888</v>
       </c>
       <c r="B12" t="n">
-        <v>96252</v>
+        <v>96334</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1852,52 +1868,41 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>223591</v>
+        <v>220787</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Skogsnycklar</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata subsp. fuchsii</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Druce) Hyl.</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Flen,östra sluttningen, Dlr</t>
+          <t>Flenberget östra, Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>488152.0494183262</v>
+        <v>487921.5497958913</v>
       </c>
       <c r="R12" t="n">
-        <v>6687308.975942057</v>
+        <v>6687825.867019381</v>
       </c>
       <c r="S12" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1921,22 +1926,27 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2017-07-27</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:51</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2017-07-27</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:51</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>knärot på en yta 10*10 m.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1951,73 +1961,65 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Ulf Svensson</t>
+          <t>Uno Skog</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Ulf Svensson</t>
+          <t>malou lundin</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>74239321</v>
+        <v>104738886</v>
       </c>
       <c r="B13" t="n">
-        <v>56395</v>
+        <v>89832</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Godkänd baserat på observatörens uppgifter</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>1209</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
+          <t>P.Karst.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Flen,östra sluttningen, Dlr</t>
+          <t>Flenberget, Dlr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>488152.0494183262</v>
+        <v>487932.6271234539</v>
       </c>
       <c r="R13" t="n">
-        <v>6687308.975942057</v>
+        <v>6687725.283991279</v>
       </c>
       <c r="S13" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2041,22 +2043,22 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2018-10-19</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:41</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2018-10-19</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:41</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2071,22 +2073,22 @@
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Ulf Svensson</t>
+          <t>Uno Skog</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Ulf Svensson</t>
+          <t>malou lundin</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>104407789</v>
+        <v>104738894</v>
       </c>
       <c r="B14" t="n">
-        <v>77259</v>
+        <v>89356</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2095,42 +2097,41 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>228912</v>
+        <v>5447</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Flenberget östra , Dlr</t>
+          <t>Flenberget östra, Dlr</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>488138.4838947128</v>
+        <v>487936.5895330756</v>
       </c>
       <c r="R14" t="n">
-        <v>6687409.577808092</v>
+        <v>6687723.289628441</v>
       </c>
       <c r="S14" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2159,7 +2160,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>13:10</t>
+          <t>12:42</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2169,7 +2170,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>13:10</t>
+          <t>12:42</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2184,7 +2185,7 @@
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>malou lundin</t>
+          <t>Uno Skog</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
@@ -2196,10 +2197,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>104407797</v>
+        <v>104738887</v>
       </c>
       <c r="B15" t="n">
-        <v>77258</v>
+        <v>77259</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2212,38 +2213,37 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6446</v>
+        <v>228912</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Flenberget östra , Dlr</t>
+          <t>Flenberget östra, Dlr</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>488111.8332868879</v>
+        <v>488105.6938069899</v>
       </c>
       <c r="R15" t="n">
-        <v>6687453.255358439</v>
+        <v>6687548.380501501</v>
       </c>
       <c r="S15" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2272,7 +2272,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>12:16</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2282,7 +2282,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>12:16</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2297,7 +2297,7 @@
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>malou lundin</t>
+          <t>Uno Skog</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
@@ -2309,10 +2309,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>104738887</v>
+        <v>104739275</v>
       </c>
       <c r="B16" t="n">
-        <v>77259</v>
+        <v>96334</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2321,25 +2321,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>228912</v>
+        <v>220787</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2349,13 +2349,13 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>488105.6938069899</v>
+        <v>487838.4880869266</v>
       </c>
       <c r="R16" t="n">
-        <v>6687548.380501501</v>
+        <v>6687762.745108599</v>
       </c>
       <c r="S16" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2379,22 +2379,22 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2022-10-17</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>12:16</t>
+          <t>11:55</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2022-10-17</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>12:16</t>
+          <t>11:55</t>
         </is>
       </c>
       <c r="AD16" t="b">
